--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="被考核人" sheetId="1" state="visible" r:id="rId2"/>
@@ -6399,13 +6399,14 @@
   </sheetPr>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="7.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="9.9"/>
   </cols>
   <sheetData>
@@ -7250,7 +7251,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
-        <v>70205368</v>
+        <v>70205386</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>53</v>
@@ -7298,7 +7299,9 @@
       <c r="C43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="n">
+        <v>7</v>
+      </c>
       <c r="E43" s="5" t="n">
         <v>42736</v>
       </c>
@@ -7868,7 +7871,7 @@
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.45"/>
@@ -7958,7 +7961,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="7.88"/>
@@ -8827,7 +8830,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.9"/>
@@ -9033,7 +9036,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.0859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.44"/>
@@ -9317,7 +9320,7 @@
       <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="28.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.47"/>
@@ -14519,7 +14522,7 @@
       <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="7.45"/>
@@ -15755,7 +15758,7 @@
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="8" width="7.45"/>
@@ -24794,7 +24797,7 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.9"/>
@@ -44639,11 +44642,11 @@
   </sheetPr>
   <dimension ref="A1:H545"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.9"/>
@@ -51096,7 +51099,7 @@
       <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.45"/>
@@ -51246,7 +51249,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.64"/>
@@ -51513,7 +51516,7 @@
       <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="7.45"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="被考核人" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7749" uniqueCount="1839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="1839">
   <si>
     <t xml:space="preserve">工号</t>
   </si>
@@ -616,36 +616,144 @@
     <t xml:space="preserve">乔兵[70203205],朱桂平[70206397]</t>
   </si>
   <si>
+    <t xml:space="preserve">指导老师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目级别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">校级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于精确模型的拉格朗日导航卫星自主定轨研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">航天空间辐射传感器高精度电源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面向桌面卫星模拟系统的太阳敏感器</t>
+  </si>
+  <si>
     <t xml:space="preserve">国家级</t>
   </si>
   <si>
     <t xml:space="preserve">沉浸式无人机视觉随动系统</t>
   </si>
   <si>
+    <t xml:space="preserve">地球辐射带中的磁声波研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王浩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">羽毛及羽毛层次结构对鸟类的飞行的影响和作用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">院级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星载线阵CCD摆扫影像几何检校研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自耦合射流悬浮效应研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于智能小车协同编队的目标三维建模方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">俞志伟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仿生干粘附与钩爪的足轮履带混合式四驱车及其运动方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文本，姓名，不能留空</t>
+  </si>
+  <si>
     <t xml:space="preserve">李宏凯</t>
   </si>
   <si>
     <t xml:space="preserve">基于浮动基方法的四足机器人动力学分析</t>
   </si>
   <si>
+    <t xml:space="preserve">文本，仅包含“国家”“省”“校”时被识别</t>
+  </si>
+  <si>
     <t xml:space="preserve">一种跳跃式球形机器人结构设计与力学分析</t>
   </si>
   <si>
     <t xml:space="preserve">基于wifi的微小卫星集群物联网演示系统</t>
   </si>
   <si>
+    <t xml:space="preserve">姬科举</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仿壁虎脚趾的黏粘附材料制备及应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于碎片工质推进的空间碎片清理方案轨道设计研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单目slam和目标识别在无人机导航方面的整合应用与优化探索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">视觉场景的三维重建与空间几何定位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">振荡射流冷却特性研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何青松</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于仿生干黏技术的无人机垂直着陆技术研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于力反馈器的机器人遥操作控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">立体图像匹配导航系统设计及研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于遥感图像／卫星定位的海洋失联目标搜救系统设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一种球形跳跃机器人电控系统设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于Geant4的辐射评估的人工智能模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于移动互联网的交互式卫星地面管理终端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闻新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火箭智能稳定控制的互动演示装备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于磁流变材料的机器人柔性关节设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基于北斗卫星4G网络的工程变形监测系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve">航天器在轨服务智能调度策略研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">研究激光三维扫描仪扫描原理和数据处理技术</t>
+  </si>
+  <si>
     <t xml:space="preserve">基于借力飞行的地球—木星转移轨道初步设计分析</t>
   </si>
   <si>
-    <t xml:space="preserve">省级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于碎片工质推进的空间碎片清理方案轨道设计研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一种球形跳跃机器人电控系统设计</t>
-  </si>
-  <si>
     <t xml:space="preserve">小行星附着机构实体样机建模及收拢/展开功能实现</t>
   </si>
   <si>
@@ -655,82 +763,10 @@
     <t xml:space="preserve">小行星附着机构虚拟样机建模及落震动力学仿真</t>
   </si>
   <si>
-    <t xml:space="preserve">指导老师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目级别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文本，姓名，不能留空</t>
-  </si>
-  <si>
-    <t xml:space="preserve">校级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于精确模型的拉格朗日导航卫星自主定轨研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文本，仅包含“国家”“省”“校”时被识别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">航天空间辐射传感器高精度电源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">面向桌面卫星模拟系统的太阳敏感器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地球辐射带中的磁声波研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王浩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">羽毛及羽毛层次结构对鸟类的飞行的影响和作用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俞志伟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仿生干粘附与钩爪的足轮履带混合式四驱车及其运动方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姬科举</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仿壁虎脚趾的黏粘附材料制备及应用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单目slam和目标识别在无人机导航方面的整合应用与优化探索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">视觉场景的三维重建与空间几何定位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">振荡射流冷却特性研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何青松</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于仿生干黏技术的无人机垂直着陆技术研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于力反馈器的机器人遥操作控制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">立体图像匹配导航系统设计及研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于遥感图像／卫星定位的海洋失联目标搜救系统设计</t>
-  </si>
-  <si>
     <t xml:space="preserve">全月浅表层水资源分布研究</t>
   </si>
   <si>
-    <t xml:space="preserve">闻新</t>
+    <t xml:space="preserve">一种基于立体投影技术的航天任务演示装置</t>
   </si>
   <si>
     <t xml:space="preserve">基于STM32的可回收水火箭</t>
@@ -740,42 +776,6 @@
   </si>
   <si>
     <t xml:space="preserve">鸽群算法改进及其在火星飞行机器人避障中的应用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">院级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星载线阵CCD摆扫影像几何检校研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自耦合射流悬浮效应研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于智能小车协同编队的目标三维建模方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于Geant4的辐射评估的人工智能模型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于移动互联网的交互式卫星地面管理终端</t>
-  </si>
-  <si>
-    <t xml:space="preserve">火箭智能稳定控制的互动演示装备</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于磁流变材料的机器人柔性关节设计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基于北斗卫星4G网络的工程变形监测系统</t>
-  </si>
-  <si>
-    <t xml:space="preserve">航天器在轨服务智能调度策略研究</t>
-  </si>
-  <si>
-    <t xml:space="preserve">研究激光三维扫描仪扫描原理和数据处理技术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一种基于立体投影技术的航天任务演示装置</t>
   </si>
   <si>
     <t xml:space="preserve">折算学时</t>
@@ -5978,14 +5978,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -6321,11 +6321,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6622,7 +6622,7 @@
       <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="7.45"/>
@@ -8090,7 +8090,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.64"/>
@@ -8113,10 +8113,10 @@
         <v>2017</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8127,7 +8127,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8135,10 +8135,10 @@
         <v>2017</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,7 +8149,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,7 +8160,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8171,7 +8171,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>1678</v>
@@ -8188,7 +8188,7 @@
         <v>272</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>288</v>
@@ -8205,7 +8205,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>1679</v>
@@ -8222,7 +8222,7 @@
         <v>1335</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8230,10 +8230,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8244,7 +8244,7 @@
         <v>1682</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,10 +8252,10 @@
         <v>2019</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8266,7 +8266,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,7 +8277,7 @@
         <v>272</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8288,7 +8288,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8299,7 +8299,7 @@
         <v>1683</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,7 +8310,7 @@
         <v>1684</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8321,7 +8321,7 @@
         <v>1685</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8332,7 +8332,7 @@
         <v>68</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -8357,7 +8357,7 @@
       <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="7.45"/>
@@ -8384,7 +8384,7 @@
         <v>1686</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8418,7 +8418,7 @@
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.45"/>
@@ -8447,7 +8447,7 @@
         <v>1691</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>1692</v>
@@ -8508,7 +8508,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="7.88"/>
@@ -9376,7 +9376,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.9"/>
@@ -9469,7 +9469,7 @@
         <v>1797</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>1789</v>
@@ -9582,7 +9582,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.44"/>
@@ -9866,7 +9866,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="28.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.47"/>
@@ -15064,464 +15064,491 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.94921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.97265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="7.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>195</v>
+      <c r="C6" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>196</v>
+      <c r="A7" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>197</v>
+      <c r="A8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>198</v>
+      <c r="A9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>199</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="D32" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="C33" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B36" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="B38" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="B39" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="14" t="s">
+      <c r="B40" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>240</v>
       </c>
     </row>
@@ -15543,11 +15570,11 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.94921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="7.78"/>
   </cols>
@@ -15665,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16308,7 +16335,7 @@
       <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="7.45"/>
@@ -17197,7 +17224,7 @@
         <v>275</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17505,7 +17532,7 @@
         <v>275</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17544,7 +17571,7 @@
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="8" width="7.45"/>
@@ -17747,7 +17774,7 @@
         <v>321</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>322</v>
@@ -17764,7 +17791,7 @@
         <v>324</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>325</v>
@@ -17781,7 +17808,7 @@
         <v>327</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>328</v>
@@ -17798,7 +17825,7 @@
         <v>329</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>330</v>
@@ -17815,7 +17842,7 @@
         <v>331</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>332</v>
@@ -17832,7 +17859,7 @@
         <v>333</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>245</v>
@@ -17849,7 +17876,7 @@
         <v>334</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>335</v>
@@ -17866,7 +17893,7 @@
         <v>336</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>337</v>
@@ -17934,7 +17961,7 @@
         <v>343</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>344</v>
@@ -18353,7 +18380,7 @@
         <v>390</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>391</v>
@@ -18404,7 +18431,7 @@
         <v>398</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>344</v>
@@ -18421,7 +18448,7 @@
         <v>400</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>401</v>
@@ -18438,7 +18465,7 @@
         <v>402</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>403</v>
@@ -18455,7 +18482,7 @@
         <v>404</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>405</v>
@@ -18472,7 +18499,7 @@
         <v>406</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>407</v>
@@ -18489,7 +18516,7 @@
         <v>409</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>302</v>
@@ -18506,7 +18533,7 @@
         <v>410</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>257</v>
@@ -18523,7 +18550,7 @@
         <v>411</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>412</v>
@@ -18874,7 +18901,7 @@
         <v>453</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>376</v>
@@ -18908,7 +18935,7 @@
         <v>458</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>459</v>
@@ -18942,7 +18969,7 @@
         <v>462</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C82" s="40" t="s">
         <v>463</v>
@@ -18959,7 +18986,7 @@
         <v>464</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C83" s="40" t="s">
         <v>465</v>
@@ -18993,7 +19020,7 @@
         <v>467</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C85" s="40" t="s">
         <v>456</v>
@@ -19010,7 +19037,7 @@
         <v>468</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C86" s="40" t="s">
         <v>391</v>
@@ -19027,7 +19054,7 @@
         <v>469</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>322</v>
@@ -19180,7 +19207,7 @@
         <v>482</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>305</v>
@@ -19197,7 +19224,7 @@
         <v>483</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C97" s="40" t="s">
         <v>419</v>
@@ -19214,7 +19241,7 @@
         <v>484</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C98" s="40" t="s">
         <v>485</v>
@@ -19231,7 +19258,7 @@
         <v>486</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>473</v>
@@ -19299,7 +19326,7 @@
         <v>490</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C103" s="40" t="s">
         <v>491</v>
@@ -19367,7 +19394,7 @@
         <v>497</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C107" s="40" t="s">
         <v>251</v>
@@ -19384,7 +19411,7 @@
         <v>498</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C108" s="40" t="s">
         <v>499</v>
@@ -19401,7 +19428,7 @@
         <v>500</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C109" s="40" t="s">
         <v>465</v>
@@ -19418,7 +19445,7 @@
         <v>501</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C110" s="40" t="s">
         <v>253</v>
@@ -19435,7 +19462,7 @@
         <v>502</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C111" s="40" t="s">
         <v>264</v>
@@ -19452,7 +19479,7 @@
         <v>503</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C112" s="40" t="s">
         <v>504</v>
@@ -19469,7 +19496,7 @@
         <v>505</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C113" s="40" t="s">
         <v>506</v>
@@ -19486,7 +19513,7 @@
         <v>507</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C114" s="40" t="s">
         <v>508</v>
@@ -19550,7 +19577,7 @@
         <v>513</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C118" s="40" t="s">
         <v>257</v>
@@ -19567,7 +19594,7 @@
         <v>516</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C119" s="40" t="s">
         <v>463</v>
@@ -19720,7 +19747,7 @@
         <v>534</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>245</v>
@@ -19737,7 +19764,7 @@
         <v>535</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C129" s="40" t="s">
         <v>251</v>
@@ -19788,7 +19815,7 @@
         <v>539</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C132" s="40" t="s">
         <v>540</v>
@@ -19805,7 +19832,7 @@
         <v>542</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C133" s="40" t="s">
         <v>267</v>
@@ -19822,7 +19849,7 @@
         <v>544</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>376</v>
@@ -19839,7 +19866,7 @@
         <v>545</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>273</v>
@@ -19856,7 +19883,7 @@
         <v>547</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>245</v>
@@ -19873,7 +19900,7 @@
         <v>548</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>309</v>
@@ -19890,7 +19917,7 @@
         <v>549</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>550</v>
@@ -19907,7 +19934,7 @@
         <v>551</v>
       </c>
       <c r="B139" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>552</v>
@@ -19924,7 +19951,7 @@
         <v>553</v>
       </c>
       <c r="B140" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C140" s="40" t="s">
         <v>554</v>
@@ -19941,7 +19968,7 @@
         <v>555</v>
       </c>
       <c r="B141" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>425</v>
@@ -19958,7 +19985,7 @@
         <v>556</v>
       </c>
       <c r="B142" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>456</v>
@@ -19975,7 +20002,7 @@
         <v>557</v>
       </c>
       <c r="B143" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>246</v>
@@ -20107,7 +20134,7 @@
         <v>570</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>293</v>
@@ -20124,7 +20151,7 @@
         <v>571</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C152" s="40" t="s">
         <v>572</v>
@@ -20141,7 +20168,7 @@
         <v>573</v>
       </c>
       <c r="B153" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>269</v>
@@ -20158,7 +20185,7 @@
         <v>574</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C154" s="40" t="s">
         <v>463</v>
@@ -20205,7 +20232,7 @@
         <v>579</v>
       </c>
       <c r="B157" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C157" s="40" t="s">
         <v>255</v>
@@ -20222,7 +20249,7 @@
         <v>581</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>463</v>
@@ -20290,7 +20317,7 @@
         <v>586</v>
       </c>
       <c r="B162" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>463</v>
@@ -20322,7 +20349,7 @@
         <v>590</v>
       </c>
       <c r="B164" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>508</v>
@@ -20371,7 +20398,7 @@
         <v>598</v>
       </c>
       <c r="B167" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C167" s="40" t="s">
         <v>599</v>
@@ -21389,7 +21416,7 @@
         <v>731</v>
       </c>
       <c r="B235" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>599</v>
@@ -21406,7 +21433,7 @@
         <v>733</v>
       </c>
       <c r="B236" s="40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C236" s="40" t="s">
         <v>550</v>
@@ -26583,7 +26610,7 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.9"/>
@@ -27548,7 +27575,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B119" s="40" t="n">
         <v>0</v>
@@ -27940,7 +27967,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B168" s="40" t="n">
         <v>7.89</v>
@@ -28244,7 +28271,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B206" s="40" t="n">
         <v>4</v>
@@ -28348,7 +28375,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B219" s="40" t="n">
         <v>2</v>
@@ -28436,7 +28463,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B230" s="40" t="n">
         <v>2</v>
@@ -28548,7 +28575,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B244" s="40" t="n">
         <v>2</v>
@@ -29052,7 +29079,7 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B307" s="40" t="n">
         <v>1</v>
@@ -29060,7 +29087,7 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B308" s="40" t="n">
         <v>1</v>
@@ -29732,7 +29759,7 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B392" s="40" t="n">
         <v>2</v>
@@ -29740,7 +29767,7 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B393" s="40" t="n">
         <v>2</v>
@@ -30212,7 +30239,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B452" s="40" t="n">
         <v>8</v>
@@ -30252,7 +30279,7 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B457" s="40" t="n">
         <v>3</v>
@@ -30308,7 +30335,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B464" s="40" t="n">
         <v>7.5</v>
@@ -30364,7 +30391,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B471" s="40" t="n">
         <v>7.5</v>
@@ -30396,7 +30423,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B475" s="40" t="n">
         <v>6</v>
@@ -30676,7 +30703,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B510" s="40" t="n">
         <v>3</v>
@@ -30700,7 +30727,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B513" s="40" t="n">
         <v>1.254</v>
@@ -31100,7 +31127,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B563" s="40" t="n">
         <v>8</v>
@@ -31116,7 +31143,7 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B565" s="40" t="n">
         <v>7.6</v>
@@ -31388,7 +31415,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B599" s="40" t="n">
         <v>4</v>
@@ -31436,7 +31463,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B605" s="40" t="n">
         <v>4</v>
@@ -31580,7 +31607,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B623" s="40" t="n">
         <v>3</v>
@@ -31716,7 +31743,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B640" s="40" t="n">
         <v>8.5</v>
@@ -31732,7 +31759,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B642" s="40" t="n">
         <v>2</v>
@@ -31748,7 +31775,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B644" s="40" t="n">
         <v>14.025</v>
@@ -31772,7 +31799,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B647" s="40" t="n">
         <v>1</v>
@@ -32092,7 +32119,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B687" s="40" t="n">
         <v>1.2</v>
@@ -32124,7 +32151,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B691" s="40" t="n">
         <v>5</v>
@@ -32332,7 +32359,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B717" s="40" t="n">
         <v>2</v>
@@ -32508,7 +32535,7 @@
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B739" s="40" t="n">
         <v>1.254</v>
@@ -32564,7 +32591,7 @@
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B746" s="40" t="n">
         <v>7.225</v>
@@ -32660,7 +32687,7 @@
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B758" s="40" t="n">
         <v>0.9</v>
@@ -32668,7 +32695,7 @@
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B759" s="40" t="n">
         <v>5</v>
@@ -32740,7 +32767,7 @@
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B768" s="40" t="n">
         <v>20</v>
@@ -32988,7 +33015,7 @@
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B799" s="40" t="n">
         <v>3</v>
@@ -33060,7 +33087,7 @@
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B808" s="40" t="n">
         <v>6</v>
@@ -33156,7 +33183,7 @@
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B820" s="40" t="n">
         <v>3.3</v>
@@ -33172,7 +33199,7 @@
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B822" s="40" t="n">
         <v>1.8</v>
@@ -33244,7 +33271,7 @@
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B831" s="40" t="n">
         <v>3</v>
@@ -33268,7 +33295,7 @@
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B834" s="40" t="n">
         <v>6</v>
@@ -33348,7 +33375,7 @@
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B844" s="40" t="n">
         <v>17.9488</v>
@@ -33380,7 +33407,7 @@
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B848" s="40" t="n">
         <v>6</v>
@@ -33428,7 +33455,7 @@
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B854" s="40" t="n">
         <v>6</v>
@@ -33724,7 +33751,7 @@
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B891" s="40" t="n">
         <v>13</v>
@@ -33740,7 +33767,7 @@
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B893" s="40" t="n">
         <v>4.3</v>
@@ -33828,7 +33855,7 @@
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B904" s="40" t="n">
         <v>5</v>
@@ -33836,7 +33863,7 @@
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B905" s="40" t="n">
         <v>5</v>
@@ -33988,7 +34015,7 @@
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B924" s="40" t="n">
         <v>4</v>
@@ -33996,7 +34023,7 @@
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B925" s="40" t="n">
         <v>15</v>
@@ -34004,7 +34031,7 @@
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B926" s="40" t="n">
         <v>2</v>
@@ -34028,7 +34055,7 @@
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B929" s="40" t="n">
         <v>2</v>
@@ -34260,7 +34287,7 @@
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B958" s="40" t="n">
         <v>15</v>
@@ -34404,7 +34431,7 @@
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B976" s="40" t="n">
         <v>20</v>
@@ -34412,7 +34439,7 @@
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B977" s="40" t="n">
         <v>1.5</v>
@@ -34596,7 +34623,7 @@
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B1000" s="40" t="n">
         <v>1</v>
@@ -34628,7 +34655,7 @@
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1004" s="40" t="n">
         <v>11.4</v>
@@ -34756,7 +34783,7 @@
     </row>
     <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1020" s="40" t="n">
         <v>2</v>
@@ -34892,7 +34919,7 @@
     </row>
     <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1037" s="40" t="n">
         <v>7</v>
@@ -35076,7 +35103,7 @@
     </row>
     <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1060" s="40" t="n">
         <v>1</v>
@@ -35284,7 +35311,7 @@
     </row>
     <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1086" s="40" t="n">
         <v>15.8</v>
@@ -35308,7 +35335,7 @@
     </row>
     <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B1089" s="40" t="n">
         <v>20.418</v>
@@ -35676,7 +35703,7 @@
     </row>
     <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1135" s="40" t="n">
         <v>3</v>
@@ -36356,7 +36383,7 @@
     </row>
     <row r="1220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1220" s="40" t="n">
         <v>2.55</v>
@@ -36428,7 +36455,7 @@
     </row>
     <row r="1229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1229" s="40" t="n">
         <v>1.5</v>
@@ -36508,7 +36535,7 @@
     </row>
     <row r="1239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B1239" s="40" t="n">
         <v>0.943</v>
@@ -36620,7 +36647,7 @@
     </row>
     <row r="1253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1253" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1253" s="40" t="n">
         <v>12</v>
@@ -36724,7 +36751,7 @@
     </row>
     <row r="1266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1266" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1266" s="40" t="n">
         <v>1</v>
@@ -37092,7 +37119,7 @@
     </row>
     <row r="1312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1312" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1312" s="40" t="n">
         <v>2</v>
@@ -37460,7 +37487,7 @@
     </row>
     <row r="1358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1358" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1358" s="40" t="n">
         <v>1</v>
@@ -37588,7 +37615,7 @@
     </row>
     <row r="1374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1374" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1374" s="40" t="n">
         <v>15.8</v>
@@ -38236,7 +38263,7 @@
     </row>
     <row r="1455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1455" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1455" s="40" t="n">
         <v>15</v>
@@ -38244,7 +38271,7 @@
     </row>
     <row r="1456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1456" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1456" s="40" t="n">
         <v>1.5</v>
@@ -38252,7 +38279,7 @@
     </row>
     <row r="1457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1457" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1457" s="40" t="n">
         <v>3.75</v>
@@ -38788,7 +38815,7 @@
     </row>
     <row r="1524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1524" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B1524" s="40" t="n">
         <v>31.2993</v>
@@ -39220,7 +39247,7 @@
     </row>
     <row r="1578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1578" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B1578" s="40" t="n">
         <v>6</v>
@@ -39340,7 +39367,7 @@
     </row>
     <row r="1593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1593" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B1593" s="40" t="n">
         <v>8.528</v>
@@ -39420,7 +39447,7 @@
     </row>
     <row r="1603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1603" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1603" s="40" t="n">
         <v>6.478</v>
@@ -39900,7 +39927,7 @@
     </row>
     <row r="1663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1663" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1663" s="40" t="n">
         <v>5</v>
@@ -40268,7 +40295,7 @@
     </row>
     <row r="1709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1709" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1709" s="40" t="n">
         <v>2</v>
@@ -40444,7 +40471,7 @@
     </row>
     <row r="1731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1731" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1731" s="40" t="n">
         <v>10</v>
@@ -40452,7 +40479,7 @@
     </row>
     <row r="1732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1732" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1732" s="40" t="n">
         <v>24.19</v>
@@ -40708,7 +40735,7 @@
     </row>
     <row r="1764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1764" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1764" s="40" t="n">
         <v>24.5</v>
@@ -41028,7 +41055,7 @@
     </row>
     <row r="1804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1804" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B1804" s="40" t="n">
         <v>6.24</v>
@@ -41468,7 +41495,7 @@
     </row>
     <row r="1859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1859" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1859" s="40" t="n">
         <v>0.5</v>
@@ -41476,7 +41503,7 @@
     </row>
     <row r="1860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1860" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1860" s="40" t="n">
         <v>20</v>
@@ -41748,7 +41775,7 @@
     </row>
     <row r="1894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1894" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B1894" s="40" t="n">
         <v>15.6</v>
@@ -41908,7 +41935,7 @@
     </row>
     <row r="1914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1914" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1914" s="40" t="n">
         <v>3</v>
@@ -41932,7 +41959,7 @@
     </row>
     <row r="1917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1917" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B1917" s="40" t="n">
         <v>2</v>
@@ -42172,7 +42199,7 @@
     </row>
     <row r="1947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1947" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B1947" s="40" t="n">
         <v>2</v>
@@ -42348,7 +42375,7 @@
     </row>
     <row r="1969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1969" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1969" s="40" t="n">
         <v>1.2</v>
@@ -42412,7 +42439,7 @@
     </row>
     <row r="1977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1977" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B1977" s="40" t="n">
         <v>2</v>
@@ -42428,7 +42455,7 @@
     </row>
     <row r="1979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1979" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B1979" s="40" t="n">
         <v>1</v>
@@ -42604,7 +42631,7 @@
     </row>
     <row r="2001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2001" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B2001" s="40" t="n">
         <v>0.8</v>
@@ -42860,7 +42887,7 @@
     </row>
     <row r="2033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2033" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B2033" s="40" t="n">
         <v>14.56</v>
@@ -43060,7 +43087,7 @@
     </row>
     <row r="2058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2058" s="40" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B2058" s="40" t="n">
         <v>4</v>
@@ -43092,7 +43119,7 @@
     </row>
     <row r="2062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2062" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B2062" s="40" t="n">
         <v>10</v>
@@ -43108,7 +43135,7 @@
     </row>
     <row r="2064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2064" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B2064" s="40" t="n">
         <v>10</v>
@@ -43204,7 +43231,7 @@
     </row>
     <row r="2076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2076" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B2076" s="40" t="n">
         <v>3</v>
@@ -43340,7 +43367,7 @@
     </row>
     <row r="2093" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2093" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B2093" s="40" t="n">
         <v>1.3</v>
@@ -43372,7 +43399,7 @@
     </row>
     <row r="2097" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2097" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2097" s="40" t="n">
         <v>6</v>
@@ -43660,7 +43687,7 @@
     </row>
     <row r="2133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2133" s="40" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B2133" s="40" t="n">
         <v>0.5</v>
@@ -43668,7 +43695,7 @@
     </row>
     <row r="2134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2134" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B2134" s="40" t="n">
         <v>0.5</v>
@@ -43708,7 +43735,7 @@
     </row>
     <row r="2139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2139" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2139" s="40" t="n">
         <v>4</v>
@@ -43964,7 +43991,7 @@
     </row>
     <row r="2171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2171" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B2171" s="40" t="n">
         <v>5.2</v>
@@ -44564,7 +44591,7 @@
     </row>
     <row r="2246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2246" s="40" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B2246" s="40" t="n">
         <v>3</v>
@@ -46432,7 +46459,7 @@
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.9"/>
@@ -46832,7 +46859,7 @@
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46842,7 +46869,7 @@
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
       <c r="D33" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47736,7 +47763,7 @@
       </c>
       <c r="C109" s="42"/>
       <c r="D109" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47920,7 +47947,7 @@
         <v>1365</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49084,7 +49111,7 @@
         <v>1365</v>
       </c>
       <c r="D224" s="41" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49308,7 +49335,7 @@
       </c>
       <c r="C243" s="42"/>
       <c r="D243" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49550,7 +49577,7 @@
       </c>
       <c r="C264" s="42"/>
       <c r="D264" s="41" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49598,7 +49625,7 @@
         <v>1365</v>
       </c>
       <c r="D268" s="41" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49966,7 +49993,7 @@
       </c>
       <c r="C299" s="42"/>
       <c r="D299" s="41" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50038,7 +50065,7 @@
       </c>
       <c r="C305" s="42"/>
       <c r="D305" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50062,7 +50089,7 @@
         <v>1365</v>
       </c>
       <c r="D307" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50578,7 +50605,7 @@
         <v>1365</v>
       </c>
       <c r="D352" s="41" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50648,7 +50675,7 @@
         <v>1365</v>
       </c>
       <c r="D358" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50780,7 +50807,7 @@
       </c>
       <c r="C369" s="42"/>
       <c r="D369" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50792,7 +50819,7 @@
       </c>
       <c r="C370" s="42"/>
       <c r="D370" s="41" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50888,7 +50915,7 @@
         <v>1367</v>
       </c>
       <c r="D378" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50900,7 +50927,7 @@
         <v>1365</v>
       </c>
       <c r="D379" s="41" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50984,7 +51011,7 @@
       <c r="B386" s="42"/>
       <c r="C386" s="42"/>
       <c r="D386" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51032,7 +51059,7 @@
         <v>1365</v>
       </c>
       <c r="D390" s="41" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51428,7 +51455,7 @@
       </c>
       <c r="C424" s="42"/>
       <c r="D424" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51664,7 +51691,7 @@
         <v>1365</v>
       </c>
       <c r="D444" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51932,7 +51959,7 @@
       </c>
       <c r="C467" s="42"/>
       <c r="D467" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52076,7 +52103,7 @@
       </c>
       <c r="C479" s="42"/>
       <c r="D479" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52182,7 +52209,7 @@
       </c>
       <c r="C488" s="42"/>
       <c r="D488" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52788,7 +52815,7 @@
         <v>1365</v>
       </c>
       <c r="D539" s="41" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52812,7 +52839,7 @@
         <v>1365</v>
       </c>
       <c r="D541" s="41" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52885,7 +52912,7 @@
       <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.65234375" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="8" width="7.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.45"/>
